--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keroa\Documents\HEIG-VD\Optik\Labo\L1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keroa\Documents\HEIG-VD\Optik\Labo\L1\Rapport\RapportOptique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DA086C-83A2-42E8-8E0D-0768DFD716B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630518F2-BC0B-4ACE-A91A-A2B266F5AA2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEA4E1CF-F925-4C55-8FCE-594263686B83}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="B3:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>260</v>
+        <f>260*10^(-3)</f>
+        <v>0.26</v>
       </c>
       <c r="F5" s="1">
         <f>ATAN(D5/E5)</f>
@@ -557,30 +558,34 @@
       </c>
       <c r="H5" s="1">
         <f>SLOPE(C5:C13,B5:B13)</f>
-        <v>0.12500000000000003</v>
+        <v>0.125</v>
       </c>
       <c r="I5" s="1">
         <f>SLOPE(C18:C23,B18:B23)</f>
-        <v>-1.673157894736842</v>
+        <v>-542.71052631578948</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="1">
         <f>SLOPE(C18:C25,B18:B25)</f>
-        <v>-1.686150409530901</v>
+        <v>52.987341772151893</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>4</v>
+        <f>4*10^(-3)</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <f>1*10^(-3)</f>
+        <v>1E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>-10</v>
+        <f>-10*10^(-3)</f>
+        <v>-0.01</v>
       </c>
       <c r="E6" s="1">
-        <v>254</v>
+        <f>254*10^(-3)</f>
+        <v>0.254</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F13" si="0">ATAN(D6/E6)</f>
@@ -599,47 +604,55 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>6</v>
+        <f>6*10^(-3)</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.5</v>
+        <f>1.5*10^(-3)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>-10</v>
+        <f>-10*10^(-3)</f>
+        <v>-0.01</v>
       </c>
       <c r="E7" s="1">
-        <v>177</v>
+        <f>177*10^(-3)</f>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-5.6437178311703327E-2</v>
+        <v>-5.6437178311703334E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SLOPE(F5:F13,B5:B13)</f>
-        <v>-8.7574454985718791E-3</v>
+        <v>-8.7574454985718777</v>
       </c>
       <c r="I7" s="1">
         <f>SLOPE(F18:F23,B18:B23)</f>
-        <v>-1.8168297751434317E-3</v>
+        <v>-1.8168297751434317</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="1">
         <f>SLOPE(F18:F25,B18:B25)</f>
-        <v>7.0668572843101006E-5</v>
+        <v>7.0668572843100963E-2</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>8</v>
+        <f>8*10^(-3)</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.5</v>
+        <f>1.5*10^(-3)</f>
+        <v>1.5E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>-15</v>
+        <f>-15*10^(-3)</f>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>192</v>
+        <f>192*10^(-3)</f>
+        <v>0.192</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
@@ -648,16 +661,20 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>10</v>
+        <f>10*10^(-3)</f>
+        <v>0.01</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <f>2*10^(-3)</f>
+        <v>2E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>-10</v>
+        <f>-10*10^(-3)</f>
+        <v>-0.01</v>
       </c>
       <c r="E9" s="1">
-        <v>111</v>
+        <f>111*10^(-3)</f>
+        <v>0.111</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
@@ -666,34 +683,42 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>12</v>
+        <f>12*10^(-3)</f>
+        <v>1.2E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <f>2*10^(-3)</f>
+        <v>2E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>-20</v>
+        <f>-20*10^(-3)</f>
+        <v>-0.02</v>
       </c>
       <c r="E10" s="1">
-        <v>189</v>
+        <f>189*10^(-3)</f>
+        <v>0.189</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10542775112289077</v>
+        <v>-0.10542775112289078</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>14</v>
+        <f>14*10^(-3)</f>
+        <v>1.4E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>2.5</v>
+        <f>2.5*10^(-3)</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>-20</v>
+        <f>-20*10^(-3)</f>
+        <v>-0.02</v>
       </c>
       <c r="E11" s="1">
-        <v>151</v>
+        <f>151*10^(-3)</f>
+        <v>0.151</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
@@ -702,35 +727,43 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>16</v>
+        <f>16*10^(-3)</f>
+        <v>1.6E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>2.5</v>
+        <f>2.5*10^(-3)</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>-20</v>
+        <f>-20*10^(-3)</f>
+        <v>-0.02</v>
       </c>
       <c r="E12" s="1">
-        <v>141</v>
+        <f>141*10^(-3)</f>
+        <v>0.14100000000000001</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.14090400627120964</v>
+        <v>-0.14090400627120961</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>20</v>
+        <f>20*10^(-3)</f>
+        <v>0.02</v>
       </c>
       <c r="C13" s="1">
-        <v>2.5</v>
+        <f>2.5*10^(-3)</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>-20</v>
+        <f>-20*10^(-3)</f>
+        <v>-0.02</v>
       </c>
       <c r="E13" s="1">
-        <v>112</v>
+        <f>112*10^(-3)</f>
+        <v>0.112</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
@@ -770,7 +803,8 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>12</v>
+        <f>12*10^(-3)</f>
+        <v>1.2E-2</v>
       </c>
       <c r="F18" s="1">
         <f>ATAN(D18/E18)</f>
@@ -779,16 +813,20 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>3</v>
+        <f>3*10^(-3)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>-4</v>
+        <f>-4*10^(-3)</f>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D19" s="1">
-        <v>-7.5</v>
+        <f>-7.5*10^(-3)</f>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="E19" s="1">
-        <v>580</v>
+        <f>580*10^(-3)</f>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ref="F19:F25" si="1">ATAN(D19/E19)</f>
@@ -797,16 +835,19 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>5</v>
+        <f>5*10^(-3)</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C20" s="1">
         <v>-7.5</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <f>1*10^(-3)</f>
+        <v>1E-3</v>
       </c>
       <c r="E20" s="1">
-        <v>852</v>
+        <f>852*10^(-3)</f>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
@@ -815,16 +856,20 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>6</v>
+        <f>6*10^(-3)</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>-9.5</v>
+        <f>-9.5*10^(-3)</f>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="D21" s="1">
-        <v>-5</v>
+        <f>-5*10^(-3)</f>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="1">
-        <v>338</v>
+        <f>338*10^(-3)</f>
+        <v>0.33800000000000002</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
@@ -833,16 +878,19 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>8</v>
+        <f>8*10^(-3)</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C22" s="1">
         <v>-13.8</v>
       </c>
       <c r="D22" s="1">
-        <v>-5</v>
+        <f>-5*10^(-3)</f>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E22" s="1">
-        <v>320</v>
+        <f>320*10^(-3)</f>
+        <v>0.32</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
@@ -851,16 +899,20 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>10</v>
+        <f>10*10^(-3)</f>
+        <v>0.01</v>
       </c>
       <c r="C23" s="1">
-        <v>-16</v>
+        <f>-16*10^(-3)</f>
+        <v>-1.6E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>-5</v>
+        <f>-5*10^(-3)</f>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E23" s="1">
-        <v>250</v>
+        <f>250*10^(-3)</f>
+        <v>0.25</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
@@ -869,16 +921,19 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>12</v>
+        <f>12*10^(-3)</f>
+        <v>1.2E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>-19.5</v>
+        <f>-19.5*10^(-3)</f>
+        <v>-1.95E-2</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>273</v>
+        <f>273*10^(-3)</f>
+        <v>0.27300000000000002</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
@@ -887,16 +942,19 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>15</v>
+        <f>15*10^(-3)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>-25</v>
+        <f>-25*10^(-3)</f>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>175</v>
+        <f>175*10^(-3)</f>
+        <v>0.17500000000000002</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
